--- a/SS_Signal_Asset/SS_trials.xlsx
+++ b/SS_Signal_Asset/SS_trials.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{6CAC820A-57A0-2E42-8269-F732F874F2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2112465C-AD2C-714F-83E9-00BB1530F39D}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{6CAC820A-57A0-2E42-8269-F732F874F2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C794C0A1-1B53-DF40-B3F1-915B455E6FB3}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="980" windowWidth="29080" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,13 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -401,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A8" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -416,18 +412,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -438,13 +434,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -452,10 +448,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -467,72 +463,6 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
